--- a/Data Files/conferences.xlsx
+++ b/Data Files/conferences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rspoonmore/Documents/Coding/CollegeFootballBowlGames/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rspoonmore/Documents/Coding/CollegeFootballBowlGames/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF954AAA-3877-C149-961D-5E0ACAD84284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E408E-23F1-5149-BA25-7EB094ECFA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9580" yWindow="2880" windowWidth="27640" windowHeight="16940" xr2:uid="{3263E9AF-F9C0-DC44-AEF2-F5BCA61BF551}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Old!$A$1:$F$288</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$390</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:F390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1751,7 +1751,7 @@
         <v>243</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
         <v>247</v>
@@ -2571,7 +2571,7 @@
         <v>243</v>
       </c>
       <c r="E69" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F69" t="s">
         <v>247</v>
@@ -4331,7 +4331,7 @@
         <v>243</v>
       </c>
       <c r="E157" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F157" t="s">
         <v>247</v>
@@ -5171,7 +5171,7 @@
         <v>243</v>
       </c>
       <c r="E199" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="F199" t="s">
         <v>247</v>

--- a/Data Files/conferences.xlsx
+++ b/Data Files/conferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rspoonmore/Documents/Coding/CollegeFootballBowlGames/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E408E-23F1-5149-BA25-7EB094ECFA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68191A-3BC6-E641-AB5A-7E26131BD8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="2880" windowWidth="27640" windowHeight="16940" xr2:uid="{3263E9AF-F9C0-DC44-AEF2-F5BCA61BF551}"/>
+    <workbookView xWindow="18600" yWindow="500" windowWidth="11960" windowHeight="21100" xr2:uid="{3263E9AF-F9C0-DC44-AEF2-F5BCA61BF551}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="265">
   <si>
     <t>School</t>
   </si>
@@ -822,13 +822,25 @@
   </si>
   <si>
     <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Knights</t>
+  </si>
+  <si>
+    <t>Hurricanes</t>
+  </si>
+  <si>
+    <t>Minutemen</t>
+  </si>
+  <si>
+    <t>Rainbow Warriors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -839,6 +851,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1181,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BD186-F85F-7546-B82F-A6AAE7F38B00}">
-  <dimension ref="A1:F390"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="B466" sqref="B466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1982,7 +2000,7 @@
         <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="C40">
         <v>2018</v>
@@ -2322,7 +2340,7 @@
         <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C57">
         <v>2018</v>
@@ -4562,7 +4580,7 @@
         <v>72</v>
       </c>
       <c r="B169" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="C169">
         <v>2019</v>
@@ -4922,7 +4940,7 @@
         <v>102</v>
       </c>
       <c r="B187" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C187">
         <v>2019</v>
@@ -7162,7 +7180,7 @@
         <v>72</v>
       </c>
       <c r="B299" t="s">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c r="C299">
         <v>2020</v>
@@ -7522,7 +7540,7 @@
         <v>102</v>
       </c>
       <c r="B317" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="C317">
         <v>2020</v>
@@ -8997,7 +9015,2608 @@
         <v>248</v>
       </c>
     </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>41</v>
+      </c>
+      <c r="B391" t="s">
+        <v>42</v>
+      </c>
+      <c r="C391">
+        <v>2021</v>
+      </c>
+      <c r="D391" t="s">
+        <v>246</v>
+      </c>
+      <c r="E391" t="s">
+        <v>246</v>
+      </c>
+      <c r="F391" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>54</v>
+      </c>
+      <c r="B392" t="s">
+        <v>55</v>
+      </c>
+      <c r="C392">
+        <v>2021</v>
+      </c>
+      <c r="D392" t="s">
+        <v>246</v>
+      </c>
+      <c r="E392" t="s">
+        <v>246</v>
+      </c>
+      <c r="F392" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>74</v>
+      </c>
+      <c r="B393" t="s">
+        <v>34</v>
+      </c>
+      <c r="C393">
+        <v>2021</v>
+      </c>
+      <c r="D393" t="s">
+        <v>246</v>
+      </c>
+      <c r="E393" t="s">
+        <v>246</v>
+      </c>
+      <c r="F393" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>104</v>
+      </c>
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394">
+        <v>2021</v>
+      </c>
+      <c r="D394" t="s">
+        <v>246</v>
+      </c>
+      <c r="E394" t="s">
+        <v>246</v>
+      </c>
+      <c r="F394" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>121</v>
+      </c>
+      <c r="B395" t="s">
+        <v>122</v>
+      </c>
+      <c r="C395">
+        <v>2021</v>
+      </c>
+      <c r="D395" t="s">
+        <v>246</v>
+      </c>
+      <c r="E395" t="s">
+        <v>246</v>
+      </c>
+      <c r="F395" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>168</v>
+      </c>
+      <c r="B396" t="s">
+        <v>169</v>
+      </c>
+      <c r="C396">
+        <v>2021</v>
+      </c>
+      <c r="D396" t="s">
+        <v>246</v>
+      </c>
+      <c r="E396" t="s">
+        <v>246</v>
+      </c>
+      <c r="F396" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>174</v>
+      </c>
+      <c r="B397" t="s">
+        <v>32</v>
+      </c>
+      <c r="C397">
+        <v>2021</v>
+      </c>
+      <c r="D397" t="s">
+        <v>246</v>
+      </c>
+      <c r="E397" t="s">
+        <v>246</v>
+      </c>
+      <c r="F397" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>183</v>
+      </c>
+      <c r="B398" t="s">
+        <v>62</v>
+      </c>
+      <c r="C398">
+        <v>2021</v>
+      </c>
+      <c r="D398" t="s">
+        <v>246</v>
+      </c>
+      <c r="E398" t="s">
+        <v>246</v>
+      </c>
+      <c r="F398" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>194</v>
+      </c>
+      <c r="B399" t="s">
+        <v>195</v>
+      </c>
+      <c r="C399">
+        <v>2021</v>
+      </c>
+      <c r="D399" t="s">
+        <v>246</v>
+      </c>
+      <c r="E399" t="s">
+        <v>246</v>
+      </c>
+      <c r="F399" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>196</v>
+      </c>
+      <c r="B400" t="s">
+        <v>197</v>
+      </c>
+      <c r="C400">
+        <v>2021</v>
+      </c>
+      <c r="D400" t="s">
+        <v>246</v>
+      </c>
+      <c r="E400" t="s">
+        <v>246</v>
+      </c>
+      <c r="F400" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>200</v>
+      </c>
+      <c r="B401" t="s">
+        <v>261</v>
+      </c>
+      <c r="C401">
+        <v>2021</v>
+      </c>
+      <c r="D401" t="s">
+        <v>246</v>
+      </c>
+      <c r="E401" t="s">
+        <v>246</v>
+      </c>
+      <c r="F401" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>28</v>
+      </c>
+      <c r="B402" t="s">
+        <v>29</v>
+      </c>
+      <c r="C402">
+        <v>2021</v>
+      </c>
+      <c r="D402" t="s">
+        <v>243</v>
+      </c>
+      <c r="E402" t="s">
+        <v>255</v>
+      </c>
+      <c r="F402" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>43</v>
+      </c>
+      <c r="B403" t="s">
+        <v>21</v>
+      </c>
+      <c r="C403">
+        <v>2021</v>
+      </c>
+      <c r="D403" t="s">
+        <v>243</v>
+      </c>
+      <c r="E403" t="s">
+        <v>255</v>
+      </c>
+      <c r="F403" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>63</v>
+      </c>
+      <c r="B404" t="s">
+        <v>64</v>
+      </c>
+      <c r="C404">
+        <v>2021</v>
+      </c>
+      <c r="D404" t="s">
+        <v>243</v>
+      </c>
+      <c r="E404" t="s">
+        <v>255</v>
+      </c>
+      <c r="F404" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>96</v>
+      </c>
+      <c r="B405" t="s">
+        <v>23</v>
+      </c>
+      <c r="C405">
+        <v>2021</v>
+      </c>
+      <c r="D405" t="s">
+        <v>243</v>
+      </c>
+      <c r="E405" t="s">
+        <v>255</v>
+      </c>
+      <c r="F405" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>123</v>
+      </c>
+      <c r="B406" t="s">
+        <v>124</v>
+      </c>
+      <c r="C406">
+        <v>2021</v>
+      </c>
+      <c r="D406" t="s">
+        <v>243</v>
+      </c>
+      <c r="E406" t="s">
+        <v>255</v>
+      </c>
+      <c r="F406" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>179</v>
+      </c>
+      <c r="B407" t="s">
+        <v>180</v>
+      </c>
+      <c r="C407">
+        <v>2021</v>
+      </c>
+      <c r="D407" t="s">
+        <v>243</v>
+      </c>
+      <c r="E407" t="s">
+        <v>255</v>
+      </c>
+      <c r="F407" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>219</v>
+      </c>
+      <c r="B408" t="s">
+        <v>220</v>
+      </c>
+      <c r="C408">
+        <v>2021</v>
+      </c>
+      <c r="D408" t="s">
+        <v>243</v>
+      </c>
+      <c r="E408" t="s">
+        <v>255</v>
+      </c>
+      <c r="F408" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>52</v>
+      </c>
+      <c r="B409" t="s">
+        <v>259</v>
+      </c>
+      <c r="C409">
+        <v>2021</v>
+      </c>
+      <c r="D409" t="s">
+        <v>243</v>
+      </c>
+      <c r="E409" t="s">
+        <v>254</v>
+      </c>
+      <c r="F409" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>70</v>
+      </c>
+      <c r="B410" t="s">
+        <v>71</v>
+      </c>
+      <c r="C410">
+        <v>2021</v>
+      </c>
+      <c r="D410" t="s">
+        <v>243</v>
+      </c>
+      <c r="E410" t="s">
+        <v>254</v>
+      </c>
+      <c r="F410" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>105</v>
+      </c>
+      <c r="B411" t="s">
+        <v>262</v>
+      </c>
+      <c r="C411">
+        <v>2021</v>
+      </c>
+      <c r="D411" t="s">
+        <v>243</v>
+      </c>
+      <c r="E411" t="s">
+        <v>254</v>
+      </c>
+      <c r="F411" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>133</v>
+      </c>
+      <c r="B412" t="s">
+        <v>134</v>
+      </c>
+      <c r="C412">
+        <v>2021</v>
+      </c>
+      <c r="D412" t="s">
+        <v>243</v>
+      </c>
+      <c r="E412" t="s">
+        <v>254</v>
+      </c>
+      <c r="F412" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>252</v>
+      </c>
+      <c r="B413" t="s">
+        <v>58</v>
+      </c>
+      <c r="C413">
+        <v>2021</v>
+      </c>
+      <c r="D413" t="s">
+        <v>243</v>
+      </c>
+      <c r="E413" t="s">
+        <v>254</v>
+      </c>
+      <c r="F413" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>215</v>
+      </c>
+      <c r="B414" t="s">
+        <v>216</v>
+      </c>
+      <c r="C414">
+        <v>2021</v>
+      </c>
+      <c r="D414" t="s">
+        <v>243</v>
+      </c>
+      <c r="E414" t="s">
+        <v>254</v>
+      </c>
+      <c r="F414" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>217</v>
+      </c>
+      <c r="B415" t="s">
+        <v>218</v>
+      </c>
+      <c r="C415">
+        <v>2021</v>
+      </c>
+      <c r="D415" t="s">
+        <v>243</v>
+      </c>
+      <c r="E415" t="s">
+        <v>254</v>
+      </c>
+      <c r="F415" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>24</v>
+      </c>
+      <c r="B416" t="s">
+        <v>25</v>
+      </c>
+      <c r="C416">
+        <v>2021</v>
+      </c>
+      <c r="D416" t="s">
+        <v>258</v>
+      </c>
+      <c r="E416" t="s">
+        <v>242</v>
+      </c>
+      <c r="F416" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>81</v>
+      </c>
+      <c r="B417" t="s">
+        <v>82</v>
+      </c>
+      <c r="C417">
+        <v>2021</v>
+      </c>
+      <c r="D417" t="s">
+        <v>258</v>
+      </c>
+      <c r="E417" t="s">
+        <v>242</v>
+      </c>
+      <c r="F417" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>83</v>
+      </c>
+      <c r="B418" t="s">
+        <v>84</v>
+      </c>
+      <c r="C418">
+        <v>2021</v>
+      </c>
+      <c r="D418" t="s">
+        <v>258</v>
+      </c>
+      <c r="E418" t="s">
+        <v>242</v>
+      </c>
+      <c r="F418" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>85</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C419">
+        <v>2021</v>
+      </c>
+      <c r="D419" t="s">
+        <v>258</v>
+      </c>
+      <c r="E419" t="s">
+        <v>242</v>
+      </c>
+      <c r="F419" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>145</v>
+      </c>
+      <c r="B420" t="s">
+        <v>146</v>
+      </c>
+      <c r="C420">
+        <v>2021</v>
+      </c>
+      <c r="D420" t="s">
+        <v>258</v>
+      </c>
+      <c r="E420" t="s">
+        <v>242</v>
+      </c>
+      <c r="F420" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>147</v>
+      </c>
+      <c r="B421" t="s">
+        <v>148</v>
+      </c>
+      <c r="C421">
+        <v>2021</v>
+      </c>
+      <c r="D421" t="s">
+        <v>258</v>
+      </c>
+      <c r="E421" t="s">
+        <v>242</v>
+      </c>
+      <c r="F421" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>181</v>
+      </c>
+      <c r="B422" t="s">
+        <v>182</v>
+      </c>
+      <c r="C422">
+        <v>2021</v>
+      </c>
+      <c r="D422" t="s">
+        <v>258</v>
+      </c>
+      <c r="E422" t="s">
+        <v>242</v>
+      </c>
+      <c r="F422" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>186</v>
+      </c>
+      <c r="B423" t="s">
+        <v>187</v>
+      </c>
+      <c r="C423">
+        <v>2021</v>
+      </c>
+      <c r="D423" t="s">
+        <v>258</v>
+      </c>
+      <c r="E423" t="s">
+        <v>242</v>
+      </c>
+      <c r="F423" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>260</v>
+      </c>
+      <c r="B424" t="s">
+        <v>190</v>
+      </c>
+      <c r="C424">
+        <v>2021</v>
+      </c>
+      <c r="D424" t="s">
+        <v>258</v>
+      </c>
+      <c r="E424" t="s">
+        <v>242</v>
+      </c>
+      <c r="F424" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>223</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425">
+        <v>2021</v>
+      </c>
+      <c r="D425" t="s">
+        <v>258</v>
+      </c>
+      <c r="E425" t="s">
+        <v>242</v>
+      </c>
+      <c r="F425" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>77</v>
+      </c>
+      <c r="B426" t="s">
+        <v>78</v>
+      </c>
+      <c r="C426">
+        <v>2021</v>
+      </c>
+      <c r="D426" t="s">
+        <v>257</v>
+      </c>
+      <c r="E426" t="s">
+        <v>235</v>
+      </c>
+      <c r="F426" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>100</v>
+      </c>
+      <c r="B427" t="s">
+        <v>101</v>
+      </c>
+      <c r="C427">
+        <v>2021</v>
+      </c>
+      <c r="D427" t="s">
+        <v>257</v>
+      </c>
+      <c r="E427" t="s">
+        <v>235</v>
+      </c>
+      <c r="F427" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>111</v>
+      </c>
+      <c r="B428" t="s">
+        <v>167</v>
+      </c>
+      <c r="C428">
+        <v>2021</v>
+      </c>
+      <c r="D428" t="s">
+        <v>257</v>
+      </c>
+      <c r="E428" t="s">
+        <v>235</v>
+      </c>
+      <c r="F428" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>109</v>
+      </c>
+      <c r="B429" t="s">
+        <v>110</v>
+      </c>
+      <c r="C429">
+        <v>2021</v>
+      </c>
+      <c r="D429" t="s">
+        <v>257</v>
+      </c>
+      <c r="E429" t="s">
+        <v>235</v>
+      </c>
+      <c r="F429" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>143</v>
+      </c>
+      <c r="B430" t="s">
+        <v>144</v>
+      </c>
+      <c r="C430">
+        <v>2021</v>
+      </c>
+      <c r="D430" t="s">
+        <v>257</v>
+      </c>
+      <c r="E430" t="s">
+        <v>235</v>
+      </c>
+      <c r="F430" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>155</v>
+      </c>
+      <c r="B431" t="s">
+        <v>156</v>
+      </c>
+      <c r="C431">
+        <v>2021</v>
+      </c>
+      <c r="D431" t="s">
+        <v>257</v>
+      </c>
+      <c r="E431" t="s">
+        <v>235</v>
+      </c>
+      <c r="F431" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>162</v>
+      </c>
+      <c r="B432" t="s">
+        <v>163</v>
+      </c>
+      <c r="C432">
+        <v>2021</v>
+      </c>
+      <c r="D432" t="s">
+        <v>257</v>
+      </c>
+      <c r="E432" t="s">
+        <v>235</v>
+      </c>
+      <c r="F432" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>75</v>
+      </c>
+      <c r="B433" t="s">
+        <v>76</v>
+      </c>
+      <c r="C433">
+        <v>2021</v>
+      </c>
+      <c r="D433" t="s">
+        <v>257</v>
+      </c>
+      <c r="E433" t="s">
+        <v>237</v>
+      </c>
+      <c r="F433" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>79</v>
+      </c>
+      <c r="B434" t="s">
+        <v>80</v>
+      </c>
+      <c r="C434">
+        <v>2021</v>
+      </c>
+      <c r="D434" t="s">
+        <v>257</v>
+      </c>
+      <c r="E434" t="s">
+        <v>237</v>
+      </c>
+      <c r="F434" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>115</v>
+      </c>
+      <c r="B435" t="s">
+        <v>116</v>
+      </c>
+      <c r="C435">
+        <v>2021</v>
+      </c>
+      <c r="D435" t="s">
+        <v>257</v>
+      </c>
+      <c r="E435" t="s">
+        <v>237</v>
+      </c>
+      <c r="F435" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>125</v>
+      </c>
+      <c r="B436" t="s">
+        <v>126</v>
+      </c>
+      <c r="C436">
+        <v>2021</v>
+      </c>
+      <c r="D436" t="s">
+        <v>257</v>
+      </c>
+      <c r="E436" t="s">
+        <v>237</v>
+      </c>
+      <c r="F436" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>138</v>
+      </c>
+      <c r="B437" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437">
+        <v>2021</v>
+      </c>
+      <c r="D437" t="s">
+        <v>257</v>
+      </c>
+      <c r="E437" t="s">
+        <v>237</v>
+      </c>
+      <c r="F437" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>159</v>
+      </c>
+      <c r="B438" t="s">
+        <v>160</v>
+      </c>
+      <c r="C438">
+        <v>2021</v>
+      </c>
+      <c r="D438" t="s">
+        <v>257</v>
+      </c>
+      <c r="E438" t="s">
+        <v>237</v>
+      </c>
+      <c r="F438" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>227</v>
+      </c>
+      <c r="B439" t="s">
+        <v>228</v>
+      </c>
+      <c r="C439">
+        <v>2021</v>
+      </c>
+      <c r="D439" t="s">
+        <v>257</v>
+      </c>
+      <c r="E439" t="s">
+        <v>237</v>
+      </c>
+      <c r="F439" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>39</v>
+      </c>
+      <c r="B440" t="s">
+        <v>40</v>
+      </c>
+      <c r="C440">
+        <v>2021</v>
+      </c>
+      <c r="D440" t="s">
+        <v>245</v>
+      </c>
+      <c r="E440" t="s">
+        <v>235</v>
+      </c>
+      <c r="F440" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>61</v>
+      </c>
+      <c r="B441" t="s">
+        <v>62</v>
+      </c>
+      <c r="C441">
+        <v>2021</v>
+      </c>
+      <c r="D441" t="s">
+        <v>245</v>
+      </c>
+      <c r="E441" t="s">
+        <v>235</v>
+      </c>
+      <c r="F441" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>57</v>
+      </c>
+      <c r="B442" t="s">
+        <v>58</v>
+      </c>
+      <c r="C442">
+        <v>2021</v>
+      </c>
+      <c r="D442" t="s">
+        <v>245</v>
+      </c>
+      <c r="E442" t="s">
+        <v>235</v>
+      </c>
+      <c r="F442" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>98</v>
+      </c>
+      <c r="B443" t="s">
+        <v>99</v>
+      </c>
+      <c r="C443">
+        <v>2021</v>
+      </c>
+      <c r="D443" t="s">
+        <v>245</v>
+      </c>
+      <c r="E443" t="s">
+        <v>235</v>
+      </c>
+      <c r="F443" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>113</v>
+      </c>
+      <c r="B444" t="s">
+        <v>114</v>
+      </c>
+      <c r="C444">
+        <v>2021</v>
+      </c>
+      <c r="D444" t="s">
+        <v>245</v>
+      </c>
+      <c r="E444" t="s">
+        <v>235</v>
+      </c>
+      <c r="F444" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>149</v>
+      </c>
+      <c r="B445" t="s">
+        <v>150</v>
+      </c>
+      <c r="C445">
+        <v>2021</v>
+      </c>
+      <c r="D445" t="s">
+        <v>245</v>
+      </c>
+      <c r="E445" t="s">
+        <v>235</v>
+      </c>
+      <c r="F445" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>224</v>
+      </c>
+      <c r="B446" t="s">
+        <v>225</v>
+      </c>
+      <c r="C446">
+        <v>2021</v>
+      </c>
+      <c r="D446" t="s">
+        <v>245</v>
+      </c>
+      <c r="E446" t="s">
+        <v>235</v>
+      </c>
+      <c r="F446" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>93</v>
+      </c>
+      <c r="B447" t="s">
+        <v>66</v>
+      </c>
+      <c r="C447">
+        <v>2021</v>
+      </c>
+      <c r="D447" t="s">
+        <v>245</v>
+      </c>
+      <c r="E447" t="s">
+        <v>237</v>
+      </c>
+      <c r="F447" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>135</v>
+      </c>
+      <c r="B448" t="s">
+        <v>136</v>
+      </c>
+      <c r="C448">
+        <v>2021</v>
+      </c>
+      <c r="D448" t="s">
+        <v>245</v>
+      </c>
+      <c r="E448" t="s">
+        <v>237</v>
+      </c>
+      <c r="F448" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>161</v>
+      </c>
+      <c r="B449" t="s">
+        <v>62</v>
+      </c>
+      <c r="C449">
+        <v>2021</v>
+      </c>
+      <c r="D449" t="s">
+        <v>245</v>
+      </c>
+      <c r="E449" t="s">
+        <v>237</v>
+      </c>
+      <c r="F449" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>175</v>
+      </c>
+      <c r="B450" t="s">
+        <v>176</v>
+      </c>
+      <c r="C450">
+        <v>2021</v>
+      </c>
+      <c r="D450" t="s">
+        <v>245</v>
+      </c>
+      <c r="E450" t="s">
+        <v>237</v>
+      </c>
+      <c r="F450" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>198</v>
+      </c>
+      <c r="B451" t="s">
+        <v>199</v>
+      </c>
+      <c r="C451">
+        <v>2021</v>
+      </c>
+      <c r="D451" t="s">
+        <v>245</v>
+      </c>
+      <c r="E451" t="s">
+        <v>237</v>
+      </c>
+      <c r="F451" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>209</v>
+      </c>
+      <c r="B452" t="s">
+        <v>210</v>
+      </c>
+      <c r="C452">
+        <v>2021</v>
+      </c>
+      <c r="D452" t="s">
+        <v>245</v>
+      </c>
+      <c r="E452" t="s">
+        <v>237</v>
+      </c>
+      <c r="F452" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>211</v>
+      </c>
+      <c r="B453" t="s">
+        <v>212</v>
+      </c>
+      <c r="C453">
+        <v>2021</v>
+      </c>
+      <c r="D453" t="s">
+        <v>245</v>
+      </c>
+      <c r="E453" t="s">
+        <v>237</v>
+      </c>
+      <c r="F453" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" t="s">
+        <v>19</v>
+      </c>
+      <c r="C454">
+        <v>2021</v>
+      </c>
+      <c r="D454" t="s">
+        <v>241</v>
+      </c>
+      <c r="E454" t="s">
+        <v>241</v>
+      </c>
+      <c r="F454" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>33</v>
+      </c>
+      <c r="B455" t="s">
+        <v>34</v>
+      </c>
+      <c r="C455">
+        <v>2021</v>
+      </c>
+      <c r="D455" t="s">
+        <v>241</v>
+      </c>
+      <c r="E455" t="s">
+        <v>241</v>
+      </c>
+      <c r="F455" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>89</v>
+      </c>
+      <c r="B456" t="s">
+        <v>90</v>
+      </c>
+      <c r="C456">
+        <v>2021</v>
+      </c>
+      <c r="D456" t="s">
+        <v>241</v>
+      </c>
+      <c r="E456" t="s">
+        <v>241</v>
+      </c>
+      <c r="F456" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>131</v>
+      </c>
+      <c r="B457" t="s">
+        <v>132</v>
+      </c>
+      <c r="C457">
+        <v>2021</v>
+      </c>
+      <c r="D457" t="s">
+        <v>241</v>
+      </c>
+      <c r="E457" t="s">
+        <v>241</v>
+      </c>
+      <c r="F457" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>139</v>
+      </c>
+      <c r="B458" t="s">
+        <v>140</v>
+      </c>
+      <c r="C458">
+        <v>2021</v>
+      </c>
+      <c r="D458" t="s">
+        <v>241</v>
+      </c>
+      <c r="E458" t="s">
+        <v>241</v>
+      </c>
+      <c r="F458" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>50</v>
+      </c>
+      <c r="B459" t="s">
+        <v>51</v>
+      </c>
+      <c r="C459">
+        <v>2021</v>
+      </c>
+      <c r="D459" t="s">
+        <v>241</v>
+      </c>
+      <c r="E459" t="s">
+        <v>241</v>
+      </c>
+      <c r="F459" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>102</v>
+      </c>
+      <c r="B460" t="s">
+        <v>263</v>
+      </c>
+      <c r="C460">
+        <v>2021</v>
+      </c>
+      <c r="D460" t="s">
+        <v>241</v>
+      </c>
+      <c r="E460" t="s">
+        <v>241</v>
+      </c>
+      <c r="F460" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461">
+        <v>2021</v>
+      </c>
+      <c r="D461" t="s">
+        <v>234</v>
+      </c>
+      <c r="E461" t="s">
+        <v>235</v>
+      </c>
+      <c r="F461" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>30</v>
+      </c>
+      <c r="B462" t="s">
+        <v>3</v>
+      </c>
+      <c r="C462">
+        <v>2021</v>
+      </c>
+      <c r="D462" t="s">
+        <v>234</v>
+      </c>
+      <c r="E462" t="s">
+        <v>235</v>
+      </c>
+      <c r="F462" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>31</v>
+      </c>
+      <c r="B463" t="s">
+        <v>32</v>
+      </c>
+      <c r="C463">
+        <v>2021</v>
+      </c>
+      <c r="D463" t="s">
+        <v>234</v>
+      </c>
+      <c r="E463" t="s">
+        <v>235</v>
+      </c>
+      <c r="F463" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>86</v>
+      </c>
+      <c r="B464" t="s">
+        <v>87</v>
+      </c>
+      <c r="C464">
+        <v>2021</v>
+      </c>
+      <c r="D464" t="s">
+        <v>234</v>
+      </c>
+      <c r="E464" t="s">
+        <v>235</v>
+      </c>
+      <c r="F464" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>107</v>
+      </c>
+      <c r="B465" t="s">
+        <v>108</v>
+      </c>
+      <c r="C465">
+        <v>2021</v>
+      </c>
+      <c r="D465" t="s">
+        <v>234</v>
+      </c>
+      <c r="E465" t="s">
+        <v>235</v>
+      </c>
+      <c r="F465" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>141</v>
+      </c>
+      <c r="B466" t="s">
+        <v>142</v>
+      </c>
+      <c r="C466">
+        <v>2021</v>
+      </c>
+      <c r="D466" t="s">
+        <v>234</v>
+      </c>
+      <c r="E466" t="s">
+        <v>235</v>
+      </c>
+      <c r="F466" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>22</v>
+      </c>
+      <c r="B467" t="s">
+        <v>23</v>
+      </c>
+      <c r="C467">
+        <v>2021</v>
+      </c>
+      <c r="D467" t="s">
+        <v>234</v>
+      </c>
+      <c r="E467" t="s">
+        <v>237</v>
+      </c>
+      <c r="F467" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>37</v>
+      </c>
+      <c r="B468" t="s">
+        <v>38</v>
+      </c>
+      <c r="C468">
+        <v>2021</v>
+      </c>
+      <c r="D468" t="s">
+        <v>234</v>
+      </c>
+      <c r="E468" t="s">
+        <v>237</v>
+      </c>
+      <c r="F468" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>56</v>
+      </c>
+      <c r="B469" t="s">
+        <v>29</v>
+      </c>
+      <c r="C469">
+        <v>2021</v>
+      </c>
+      <c r="D469" t="s">
+        <v>234</v>
+      </c>
+      <c r="E469" t="s">
+        <v>237</v>
+      </c>
+      <c r="F469" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>137</v>
+      </c>
+      <c r="B470" t="s">
+        <v>51</v>
+      </c>
+      <c r="C470">
+        <v>2021</v>
+      </c>
+      <c r="D470" t="s">
+        <v>234</v>
+      </c>
+      <c r="E470" t="s">
+        <v>237</v>
+      </c>
+      <c r="F470" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>191</v>
+      </c>
+      <c r="B471" t="s">
+        <v>192</v>
+      </c>
+      <c r="C471">
+        <v>2021</v>
+      </c>
+      <c r="D471" t="s">
+        <v>234</v>
+      </c>
+      <c r="E471" t="s">
+        <v>237</v>
+      </c>
+      <c r="F471" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>226</v>
+      </c>
+      <c r="B472" t="s">
+        <v>27</v>
+      </c>
+      <c r="C472">
+        <v>2021</v>
+      </c>
+      <c r="D472" t="s">
+        <v>234</v>
+      </c>
+      <c r="E472" t="s">
+        <v>237</v>
+      </c>
+      <c r="F472" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>2</v>
+      </c>
+      <c r="B473" t="s">
+        <v>3</v>
+      </c>
+      <c r="C473">
+        <v>2021</v>
+      </c>
+      <c r="D473" t="s">
+        <v>232</v>
+      </c>
+      <c r="E473" t="s">
+        <v>233</v>
+      </c>
+      <c r="F473" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>26</v>
+      </c>
+      <c r="B474" t="s">
+        <v>27</v>
+      </c>
+      <c r="C474">
+        <v>2021</v>
+      </c>
+      <c r="D474" t="s">
+        <v>232</v>
+      </c>
+      <c r="E474" t="s">
+        <v>233</v>
+      </c>
+      <c r="F474" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>48</v>
+      </c>
+      <c r="B475" t="s">
+        <v>49</v>
+      </c>
+      <c r="C475">
+        <v>2021</v>
+      </c>
+      <c r="D475" t="s">
+        <v>232</v>
+      </c>
+      <c r="E475" t="s">
+        <v>233</v>
+      </c>
+      <c r="F475" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>129</v>
+      </c>
+      <c r="B476" t="s">
+        <v>130</v>
+      </c>
+      <c r="C476">
+        <v>2021</v>
+      </c>
+      <c r="D476" t="s">
+        <v>232</v>
+      </c>
+      <c r="E476" t="s">
+        <v>233</v>
+      </c>
+      <c r="F476" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>208</v>
+      </c>
+      <c r="B477" t="s">
+        <v>132</v>
+      </c>
+      <c r="C477">
+        <v>2021</v>
+      </c>
+      <c r="D477" t="s">
+        <v>232</v>
+      </c>
+      <c r="E477" t="s">
+        <v>233</v>
+      </c>
+      <c r="F477" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>229</v>
+      </c>
+      <c r="B478" t="s">
+        <v>148</v>
+      </c>
+      <c r="C478">
+        <v>2021</v>
+      </c>
+      <c r="D478" t="s">
+        <v>232</v>
+      </c>
+      <c r="E478" t="s">
+        <v>233</v>
+      </c>
+      <c r="F478" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>65</v>
+      </c>
+      <c r="B479" t="s">
+        <v>66</v>
+      </c>
+      <c r="C479">
+        <v>2021</v>
+      </c>
+      <c r="D479" t="s">
+        <v>232</v>
+      </c>
+      <c r="E479" t="s">
+        <v>237</v>
+      </c>
+      <c r="F479" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>72</v>
+      </c>
+      <c r="B480" t="s">
+        <v>264</v>
+      </c>
+      <c r="C480">
+        <v>2021</v>
+      </c>
+      <c r="D480" t="s">
+        <v>232</v>
+      </c>
+      <c r="E480" t="s">
+        <v>237</v>
+      </c>
+      <c r="F480" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>127</v>
+      </c>
+      <c r="B481" t="s">
+        <v>128</v>
+      </c>
+      <c r="C481">
+        <v>2021</v>
+      </c>
+      <c r="D481" t="s">
+        <v>232</v>
+      </c>
+      <c r="E481" t="s">
+        <v>237</v>
+      </c>
+      <c r="F481" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>164</v>
+      </c>
+      <c r="B482" t="s">
+        <v>165</v>
+      </c>
+      <c r="C482">
+        <v>2021</v>
+      </c>
+      <c r="D482" t="s">
+        <v>232</v>
+      </c>
+      <c r="E482" t="s">
+        <v>237</v>
+      </c>
+      <c r="F482" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>166</v>
+      </c>
+      <c r="B483" t="s">
+        <v>167</v>
+      </c>
+      <c r="C483">
+        <v>2021</v>
+      </c>
+      <c r="D483" t="s">
+        <v>232</v>
+      </c>
+      <c r="E483" t="s">
+        <v>237</v>
+      </c>
+      <c r="F483" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>204</v>
+      </c>
+      <c r="B484" t="s">
+        <v>118</v>
+      </c>
+      <c r="C484">
+        <v>2021</v>
+      </c>
+      <c r="D484" t="s">
+        <v>232</v>
+      </c>
+      <c r="E484" t="s">
+        <v>237</v>
+      </c>
+      <c r="F484" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>35</v>
+      </c>
+      <c r="B485" t="s">
+        <v>36</v>
+      </c>
+      <c r="C485">
+        <v>2021</v>
+      </c>
+      <c r="D485" t="s">
+        <v>239</v>
+      </c>
+      <c r="E485" t="s">
+        <v>244</v>
+      </c>
+      <c r="F485" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>151</v>
+      </c>
+      <c r="B486" t="s">
+        <v>152</v>
+      </c>
+      <c r="C486">
+        <v>2021</v>
+      </c>
+      <c r="D486" t="s">
+        <v>239</v>
+      </c>
+      <c r="E486" t="s">
+        <v>244</v>
+      </c>
+      <c r="F486" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>153</v>
+      </c>
+      <c r="B487" t="s">
+        <v>154</v>
+      </c>
+      <c r="C487">
+        <v>2021</v>
+      </c>
+      <c r="D487" t="s">
+        <v>239</v>
+      </c>
+      <c r="E487" t="s">
+        <v>244</v>
+      </c>
+      <c r="F487" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>177</v>
+      </c>
+      <c r="B488" t="s">
+        <v>178</v>
+      </c>
+      <c r="C488">
+        <v>2021</v>
+      </c>
+      <c r="D488" t="s">
+        <v>239</v>
+      </c>
+      <c r="E488" t="s">
+        <v>244</v>
+      </c>
+      <c r="F488" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>221</v>
+      </c>
+      <c r="B489" t="s">
+        <v>51</v>
+      </c>
+      <c r="C489">
+        <v>2021</v>
+      </c>
+      <c r="D489" t="s">
+        <v>239</v>
+      </c>
+      <c r="E489" t="s">
+        <v>244</v>
+      </c>
+      <c r="F489" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>222</v>
+      </c>
+      <c r="B490" t="s">
+        <v>34</v>
+      </c>
+      <c r="C490">
+        <v>2021</v>
+      </c>
+      <c r="D490" t="s">
+        <v>239</v>
+      </c>
+      <c r="E490" t="s">
+        <v>244</v>
+      </c>
+      <c r="F490" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>12</v>
+      </c>
+      <c r="B491" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491">
+        <v>2021</v>
+      </c>
+      <c r="D491" t="s">
+        <v>239</v>
+      </c>
+      <c r="E491" t="s">
+        <v>240</v>
+      </c>
+      <c r="F491" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>10</v>
+      </c>
+      <c r="B492" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492">
+        <v>2021</v>
+      </c>
+      <c r="D492" t="s">
+        <v>239</v>
+      </c>
+      <c r="E492" t="s">
+        <v>240</v>
+      </c>
+      <c r="F492" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>46</v>
+      </c>
+      <c r="B493" t="s">
+        <v>47</v>
+      </c>
+      <c r="C493">
+        <v>2021</v>
+      </c>
+      <c r="D493" t="s">
+        <v>239</v>
+      </c>
+      <c r="E493" t="s">
+        <v>240</v>
+      </c>
+      <c r="F493" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>202</v>
+      </c>
+      <c r="B494" t="s">
+        <v>203</v>
+      </c>
+      <c r="C494">
+        <v>2021</v>
+      </c>
+      <c r="D494" t="s">
+        <v>239</v>
+      </c>
+      <c r="E494" t="s">
+        <v>240</v>
+      </c>
+      <c r="F494" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>205</v>
+      </c>
+      <c r="B495" t="s">
+        <v>112</v>
+      </c>
+      <c r="C495">
+        <v>2021</v>
+      </c>
+      <c r="D495" t="s">
+        <v>239</v>
+      </c>
+      <c r="E495" t="s">
+        <v>240</v>
+      </c>
+      <c r="F495" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>206</v>
+      </c>
+      <c r="B496" t="s">
+        <v>207</v>
+      </c>
+      <c r="C496">
+        <v>2021</v>
+      </c>
+      <c r="D496" t="s">
+        <v>239</v>
+      </c>
+      <c r="E496" t="s">
+        <v>240</v>
+      </c>
+      <c r="F496" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>59</v>
+      </c>
+      <c r="B497" t="s">
+        <v>60</v>
+      </c>
+      <c r="C497">
+        <v>2021</v>
+      </c>
+      <c r="D497" t="s">
+        <v>236</v>
+      </c>
+      <c r="E497" t="s">
+        <v>235</v>
+      </c>
+      <c r="F497" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>67</v>
+      </c>
+      <c r="B498" t="s">
+        <v>66</v>
+      </c>
+      <c r="C498">
+        <v>2021</v>
+      </c>
+      <c r="D498" t="s">
+        <v>236</v>
+      </c>
+      <c r="E498" t="s">
+        <v>235</v>
+      </c>
+      <c r="F498" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>88</v>
+      </c>
+      <c r="B499" t="s">
+        <v>11</v>
+      </c>
+      <c r="C499">
+        <v>2021</v>
+      </c>
+      <c r="D499" t="s">
+        <v>236</v>
+      </c>
+      <c r="E499" t="s">
+        <v>235</v>
+      </c>
+      <c r="F499" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>120</v>
+      </c>
+      <c r="B500" t="s">
+        <v>21</v>
+      </c>
+      <c r="C500">
+        <v>2021</v>
+      </c>
+      <c r="D500" t="s">
+        <v>236</v>
+      </c>
+      <c r="E500" t="s">
+        <v>235</v>
+      </c>
+      <c r="F500" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>172</v>
+      </c>
+      <c r="B501" t="s">
+        <v>173</v>
+      </c>
+      <c r="C501">
+        <v>2021</v>
+      </c>
+      <c r="D501" t="s">
+        <v>236</v>
+      </c>
+      <c r="E501" t="s">
+        <v>235</v>
+      </c>
+      <c r="F501" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>184</v>
+      </c>
+      <c r="B502" t="s">
+        <v>185</v>
+      </c>
+      <c r="C502">
+        <v>2021</v>
+      </c>
+      <c r="D502" t="s">
+        <v>236</v>
+      </c>
+      <c r="E502" t="s">
+        <v>235</v>
+      </c>
+      <c r="F502" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>213</v>
+      </c>
+      <c r="B503" t="s">
+        <v>214</v>
+      </c>
+      <c r="C503">
+        <v>2021</v>
+      </c>
+      <c r="D503" t="s">
+        <v>236</v>
+      </c>
+      <c r="E503" t="s">
+        <v>235</v>
+      </c>
+      <c r="F503" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>6</v>
+      </c>
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+      <c r="C504">
+        <v>2021</v>
+      </c>
+      <c r="D504" t="s">
+        <v>236</v>
+      </c>
+      <c r="E504" t="s">
+        <v>237</v>
+      </c>
+      <c r="F504" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>14</v>
+      </c>
+      <c r="B505" t="s">
+        <v>15</v>
+      </c>
+      <c r="C505">
+        <v>2021</v>
+      </c>
+      <c r="D505" t="s">
+        <v>236</v>
+      </c>
+      <c r="E505" t="s">
+        <v>237</v>
+      </c>
+      <c r="F505" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>20</v>
+      </c>
+      <c r="B506" t="s">
+        <v>21</v>
+      </c>
+      <c r="C506">
+        <v>2021</v>
+      </c>
+      <c r="D506" t="s">
+        <v>236</v>
+      </c>
+      <c r="E506" t="s">
+        <v>237</v>
+      </c>
+      <c r="F506" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>97</v>
+      </c>
+      <c r="B507" t="s">
+        <v>21</v>
+      </c>
+      <c r="C507">
+        <v>2021</v>
+      </c>
+      <c r="D507" t="s">
+        <v>236</v>
+      </c>
+      <c r="E507" t="s">
+        <v>237</v>
+      </c>
+      <c r="F507" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>119</v>
+      </c>
+      <c r="B508" t="s">
+        <v>66</v>
+      </c>
+      <c r="C508">
+        <v>2021</v>
+      </c>
+      <c r="D508" t="s">
+        <v>236</v>
+      </c>
+      <c r="E508" t="s">
+        <v>237</v>
+      </c>
+      <c r="F508" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>117</v>
+      </c>
+      <c r="B509" t="s">
+        <v>118</v>
+      </c>
+      <c r="C509">
+        <v>2021</v>
+      </c>
+      <c r="D509" t="s">
+        <v>236</v>
+      </c>
+      <c r="E509" t="s">
+        <v>237</v>
+      </c>
+      <c r="F509" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>188</v>
+      </c>
+      <c r="B510" t="s">
+        <v>132</v>
+      </c>
+      <c r="C510">
+        <v>2021</v>
+      </c>
+      <c r="D510" t="s">
+        <v>236</v>
+      </c>
+      <c r="E510" t="s">
+        <v>237</v>
+      </c>
+      <c r="F510" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>8</v>
+      </c>
+      <c r="B511" t="s">
+        <v>9</v>
+      </c>
+      <c r="C511">
+        <v>2021</v>
+      </c>
+      <c r="D511" t="s">
+        <v>238</v>
+      </c>
+      <c r="E511" t="s">
+        <v>235</v>
+      </c>
+      <c r="F511" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>44</v>
+      </c>
+      <c r="B512" t="s">
+        <v>45</v>
+      </c>
+      <c r="C512">
+        <v>2021</v>
+      </c>
+      <c r="D512" t="s">
+        <v>238</v>
+      </c>
+      <c r="E512" t="s">
+        <v>235</v>
+      </c>
+      <c r="F512" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>68</v>
+      </c>
+      <c r="B513" t="s">
+        <v>29</v>
+      </c>
+      <c r="C513">
+        <v>2021</v>
+      </c>
+      <c r="D513" t="s">
+        <v>238</v>
+      </c>
+      <c r="E513" t="s">
+        <v>235</v>
+      </c>
+      <c r="F513" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>69</v>
+      </c>
+      <c r="B514" t="s">
+        <v>58</v>
+      </c>
+      <c r="C514">
+        <v>2021</v>
+      </c>
+      <c r="D514" t="s">
+        <v>238</v>
+      </c>
+      <c r="E514" t="s">
+        <v>235</v>
+      </c>
+      <c r="F514" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>193</v>
+      </c>
+      <c r="B515" t="s">
+        <v>112</v>
+      </c>
+      <c r="C515">
+        <v>2021</v>
+      </c>
+      <c r="D515" t="s">
+        <v>238</v>
+      </c>
+      <c r="E515" t="s">
+        <v>235</v>
+      </c>
+      <c r="F515" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>16</v>
+      </c>
+      <c r="B516" t="s">
+        <v>17</v>
+      </c>
+      <c r="C516">
+        <v>2021</v>
+      </c>
+      <c r="D516" t="s">
+        <v>238</v>
+      </c>
+      <c r="E516" t="s">
+        <v>237</v>
+      </c>
+      <c r="F516" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>91</v>
+      </c>
+      <c r="B517" t="s">
+        <v>92</v>
+      </c>
+      <c r="C517">
+        <v>2021</v>
+      </c>
+      <c r="D517" t="s">
+        <v>238</v>
+      </c>
+      <c r="E517" t="s">
+        <v>237</v>
+      </c>
+      <c r="F517" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>170</v>
+      </c>
+      <c r="B518" t="s">
+        <v>171</v>
+      </c>
+      <c r="C518">
+        <v>2021</v>
+      </c>
+      <c r="D518" t="s">
+        <v>238</v>
+      </c>
+      <c r="E518" t="s">
+        <v>237</v>
+      </c>
+      <c r="F518" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>189</v>
+      </c>
+      <c r="B519" t="s">
+        <v>142</v>
+      </c>
+      <c r="C519">
+        <v>2021</v>
+      </c>
+      <c r="D519" t="s">
+        <v>238</v>
+      </c>
+      <c r="E519" t="s">
+        <v>237</v>
+      </c>
+      <c r="F519" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>94</v>
+      </c>
+      <c r="B520" t="s">
+        <v>95</v>
+      </c>
+      <c r="C520">
+        <v>2021</v>
+      </c>
+      <c r="D520" t="s">
+        <v>238</v>
+      </c>
+      <c r="E520" t="s">
+        <v>237</v>
+      </c>
+      <c r="F520" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
